--- a/data/data_from_Wenqi/site_general_info.xlsx
+++ b/data/data_from_Wenqi/site_general_info.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7DF5BD-527F-4F61-A4F2-158DC581D54B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB31754-9A9A-4F1F-A21C-2C05DE3233BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -564,31 +564,31 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>105.91</v>
+        <v>102.73</v>
       </c>
       <c r="E2">
-        <v>38.979999999999997</v>
+        <v>36.69</v>
       </c>
       <c r="F2">
-        <v>2161</v>
+        <v>2085</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2">
-        <v>171</v>
+        <v>419.88</v>
       </c>
       <c r="I2">
-        <v>3.0999999999999988</v>
+        <v>6.2095999999999991</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -651,196 +651,196 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>109.33</v>
+        <v>105.91</v>
       </c>
       <c r="E5">
-        <v>40.72</v>
+        <v>38.979999999999997</v>
       </c>
       <c r="F5">
-        <v>1515</v>
+        <v>2161</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H5">
-        <v>300.95999999999998</v>
+        <v>171</v>
       </c>
       <c r="I5">
-        <v>4.9491999999999994</v>
+        <v>3.0999999999999988</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1">
-      <c r="A6" s="2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>106.59</v>
+      </c>
+      <c r="E6">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F6">
+        <v>1641</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>734.88</v>
+      </c>
+      <c r="I6">
+        <v>7.7094000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2">
-        <v>117.72</v>
-      </c>
-      <c r="E6" s="2">
-        <v>43.63</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1132</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2">
-        <v>361.44</v>
-      </c>
-      <c r="I6" s="2">
-        <v>3.1686000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1">
-      <c r="A7" s="1">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="1">
-        <v>118.8</v>
-      </c>
-      <c r="E7" s="1">
-        <v>41.87</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1458</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1">
-        <v>371.64</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2.3790000000000004</v>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>108.6</v>
+      </c>
+      <c r="E7">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="F7">
+        <v>1595</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>597.48</v>
+      </c>
+      <c r="I7">
+        <v>7.3667999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>110.61</v>
+        <v>109.33</v>
       </c>
       <c r="E8">
-        <v>39.29</v>
+        <v>40.72</v>
       </c>
       <c r="F8">
-        <v>1321</v>
+        <v>1515</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
       <c r="H8">
-        <v>397.56000000000006</v>
+        <v>300.95999999999998</v>
       </c>
       <c r="I8">
-        <v>6.3920000000000012</v>
+        <v>4.9491999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1">
-      <c r="A9" s="1">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="1">
-        <v>117.03</v>
-      </c>
-      <c r="E9" s="1">
-        <v>42.99</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1229</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="1">
-        <v>398.04</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2.7494000000000005</v>
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>109.95</v>
+      </c>
+      <c r="E9">
+        <v>35.9</v>
+      </c>
+      <c r="F9">
+        <v>1247</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>597.48</v>
+      </c>
+      <c r="I9">
+        <v>9.4548000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>111.24</v>
+        <v>110.61</v>
       </c>
       <c r="E10">
-        <v>40.840000000000003</v>
+        <v>39.29</v>
       </c>
       <c r="F10">
-        <v>1770</v>
+        <v>1321</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
       <c r="H10">
-        <v>402.12</v>
+        <v>397.56000000000006</v>
       </c>
       <c r="I10">
-        <v>3.0851999999999995</v>
+        <v>6.3920000000000012</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>111.29</v>
+        <v>111.24</v>
       </c>
       <c r="E11">
-        <v>40.799999999999997</v>
+        <v>40.840000000000003</v>
       </c>
       <c r="F11">
-        <v>1399</v>
+        <v>1770</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -849,389 +849,389 @@
         <v>402.12</v>
       </c>
       <c r="I11">
-        <v>5.3111999999999995</v>
+        <v>3.0851999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>111.96</v>
+        <v>111.29</v>
       </c>
       <c r="E12">
-        <v>38.67</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="F12">
-        <v>1576</v>
+        <v>1399</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H12">
-        <v>418.08000000000004</v>
+        <v>402.12</v>
       </c>
       <c r="I12">
-        <v>5.2408000000000001</v>
+        <v>5.3111999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>102.73</v>
+        <v>111.4</v>
       </c>
       <c r="E13">
-        <v>36.69</v>
+        <v>37.92</v>
       </c>
       <c r="F13">
-        <v>2085</v>
+        <v>1680</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
       </c>
       <c r="H13">
-        <v>419.88</v>
+        <v>485.76</v>
       </c>
       <c r="I13">
-        <v>6.2095999999999991</v>
+        <v>6.2237999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>117.06</v>
+        <v>111.96</v>
       </c>
       <c r="E14">
-        <v>41.71</v>
+        <v>38.67</v>
       </c>
       <c r="F14">
-        <v>957</v>
+        <v>1576</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>443.52</v>
+        <v>418.08000000000004</v>
       </c>
       <c r="I14">
-        <v>4.7926000000000002</v>
+        <v>5.2408000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15">
-        <v>118.43</v>
-      </c>
-      <c r="E15">
-        <v>41.36</v>
-      </c>
-      <c r="F15">
-        <v>1064</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="A15" s="1">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1">
+        <v>117.03</v>
+      </c>
+      <c r="E15" s="1">
+        <v>42.99</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1229</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H15">
-        <v>443.64</v>
-      </c>
-      <c r="I15">
-        <v>4.1506000000000007</v>
+      <c r="H15" s="1">
+        <v>398.04</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2.7494000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D16">
-        <v>118.52</v>
+        <v>117.06</v>
       </c>
       <c r="E16">
-        <v>41.31</v>
+        <v>41.71</v>
       </c>
       <c r="F16">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
       </c>
       <c r="H16">
-        <v>443.64</v>
+        <v>443.52</v>
       </c>
       <c r="I16">
-        <v>4.8166000000000002</v>
+        <v>4.7926000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <v>111.4</v>
-      </c>
-      <c r="E17">
-        <v>37.92</v>
-      </c>
-      <c r="F17">
-        <v>1680</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17">
-        <v>485.76</v>
-      </c>
-      <c r="I17">
-        <v>6.2237999999999998</v>
+      <c r="A17" s="2">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2">
+        <v>117.72</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43.63</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1132</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2">
+        <v>361.44</v>
+      </c>
+      <c r="I17" s="2">
+        <v>3.1686000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>121.7</v>
+        <v>117.85</v>
       </c>
       <c r="E18">
-        <v>41.61</v>
+        <v>35.56</v>
       </c>
       <c r="F18">
-        <v>442</v>
+        <v>1129</v>
       </c>
       <c r="G18" t="s">
         <v>9</v>
       </c>
       <c r="H18">
-        <v>572.88</v>
+        <v>742.56000000000006</v>
       </c>
       <c r="I18">
-        <v>6.0221999999999998</v>
+        <v>6.6586000000000007</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>108.6</v>
+        <v>118.43</v>
       </c>
       <c r="E19">
-        <v>35.450000000000003</v>
+        <v>41.36</v>
       </c>
       <c r="F19">
-        <v>1595</v>
+        <v>1064</v>
       </c>
       <c r="G19" t="s">
         <v>9</v>
       </c>
       <c r="H19">
-        <v>597.48</v>
+        <v>443.64</v>
       </c>
       <c r="I19">
-        <v>7.3667999999999996</v>
+        <v>4.1506000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D20">
-        <v>109.95</v>
+        <v>118.52</v>
       </c>
       <c r="E20">
-        <v>35.9</v>
+        <v>41.31</v>
       </c>
       <c r="F20">
-        <v>1247</v>
+        <v>953</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
       </c>
       <c r="H20">
-        <v>597.48</v>
+        <v>443.64</v>
       </c>
       <c r="I20">
-        <v>9.4548000000000005</v>
+        <v>4.8166000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D21">
-        <v>123.11</v>
+        <v>118.64</v>
       </c>
       <c r="E21">
-        <v>41.02</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="F21">
-        <v>245</v>
+        <v>722</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H21">
-        <v>631.31999999999994</v>
+        <v>703.43999999999994</v>
       </c>
       <c r="I21">
-        <v>8.1059999999999999</v>
+        <v>10.145</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22">
-        <v>118.64</v>
-      </c>
-      <c r="E22">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="F22">
-        <v>722</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="A22" s="1">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="1">
+        <v>118.8</v>
+      </c>
+      <c r="E22" s="1">
+        <v>41.87</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1458</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H22">
-        <v>703.43999999999994</v>
-      </c>
-      <c r="I22">
-        <v>10.145</v>
+      <c r="H22" s="1">
+        <v>371.64</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2.3790000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D23">
-        <v>106.59</v>
+        <v>121.7</v>
       </c>
       <c r="E23">
-        <v>34.200000000000003</v>
+        <v>41.61</v>
       </c>
       <c r="F23">
-        <v>1641</v>
+        <v>442</v>
       </c>
       <c r="G23" t="s">
         <v>9</v>
       </c>
       <c r="H23">
-        <v>734.88</v>
+        <v>572.88</v>
       </c>
       <c r="I23">
-        <v>7.7094000000000005</v>
+        <v>6.0221999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D24">
-        <v>117.85</v>
+        <v>123.11</v>
       </c>
       <c r="E24">
-        <v>35.56</v>
+        <v>41.02</v>
       </c>
       <c r="F24">
-        <v>1129</v>
+        <v>245</v>
       </c>
       <c r="G24" t="s">
         <v>9</v>
       </c>
       <c r="H24">
-        <v>742.56000000000006</v>
+        <v>631.31999999999994</v>
       </c>
       <c r="I24">
-        <v>6.6586000000000007</v>
+        <v>8.1059999999999999</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I26">
-    <sortCondition ref="H1"/>
+  <sortState ref="A2:I24">
+    <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
